--- a/rest API.xlsx
+++ b/rest API.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>play a song</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>/music?song=</t>
+  </si>
+  <si>
+    <t>/recommendation/restraunt</t>
+  </si>
+  <si>
+    <t>/recommendation/music</t>
+  </si>
+  <si>
+    <t>get a recommendation of restraunt, return a list of urls</t>
+  </si>
+  <si>
+    <t>get a recommendation of music, return a list of song names</t>
   </si>
 </sst>
 </file>
@@ -374,55 +386,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="36.1640625" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/rest API.xlsx
+++ b/rest API.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/changdali/Documents/course/iot/emotion+/iot17steam5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuhao/workspace/iot17steam5/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>play a song</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>get a recommendation of music, return a list of song names</t>
+  </si>
+  <si>
+    <t>/emotion</t>
+  </si>
+  <si>
+    <t>current emotion</t>
   </si>
 </sst>
 </file>
@@ -386,16 +392,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="36.1640625" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -458,6 +465,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rest API.xlsx
+++ b/rest API.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>play a song</t>
   </si>
@@ -74,7 +74,28 @@
     <t>/emotion</t>
   </si>
   <si>
-    <t>current emotion</t>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>{emotion_type:float between 0-1}</t>
+  </si>
+  <si>
+    <t>current updated emotion</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>json:</t>
+  </si>
+  <si>
+    <t>{"data":[{"emotion_type":float}]}</t>
+  </si>
+  <si>
+    <t>/emotion/week</t>
+  </si>
+  <si>
+    <t>emotion value in the past week</t>
   </si>
 </sst>
 </file>
@@ -392,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -405,7 +426,7 @@
     <col min="3" max="3" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -413,7 +434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -421,7 +442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -429,7 +450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -437,7 +458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -445,11 +466,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -457,20 +478,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/rest API.xlsx
+++ b/rest API.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>play a song</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>get a recommendation of music, return a list of song names</t>
+  </si>
+  <si>
+    <t>/recommendation/sports</t>
+  </si>
+  <si>
+    <t>get a recommendation of sports, return a list of sports</t>
   </si>
 </sst>
 </file>
@@ -389,7 +395,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -414,6 +420,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>9</v>

--- a/rest API.xlsx
+++ b/rest API.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>play a song</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>emotion value in the past week</t>
+  </si>
+  <si>
+    <t>respberrypi-ip:172.29.92.105</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -501,28 +504,33 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
         <v>20</v>
       </c>
     </row>

--- a/rest API.xlsx
+++ b/rest API.xlsx
@@ -98,7 +98,7 @@
     <t>emotion value in the past week</t>
   </si>
   <si>
-    <t>respberrypi-ip:172.29.92.105</t>
+    <t>respberrypi-ip:172.29.92.105:8888</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/rest API.xlsx
+++ b/rest API.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/changdali/Documents/course/iot/emotion+/iot17steam5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuhao/workspace/iot17steam5/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>play a song</t>
   </si>
@@ -98,13 +98,10 @@
     <t>emotion value in the past week</t>
   </si>
   <si>
-    <t>respberrypi-ip:172.29.92.105</t>
-  </si>
-  <si>
-    <t>/recommendation/sports</t>
-  </si>
-  <si>
-    <t>get a recommendation of sports, return a list of sports</t>
+    <t>respberrypi-ip:172.29.92.105:8888</t>
+  </si>
+  <si>
+    <t>jsonarray: From one week ago to today</t>
   </si>
 </sst>
 </file>
@@ -425,7 +422,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -451,14 +448,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>9</v>
@@ -544,6 +533,9 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
       <c r="C21" t="s">
         <v>20</v>
       </c>

--- a/rest API.xlsx
+++ b/rest API.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuhao/workspace/iot17steam5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/changdali/Documents/course/iot/emotion+/iot17steam5/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>play a song</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>jsonarray: From one week ago to today</t>
+  </si>
+  <si>
+    <t>/hue</t>
+  </si>
+  <si>
+    <t>get a brightness</t>
   </si>
 </sst>
 </file>
@@ -419,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -540,6 +546,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rest API.xlsx
+++ b/rest API.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>play a song</t>
   </si>
@@ -59,9 +59,6 @@
     <t>/music?song=</t>
   </si>
   <si>
-    <t>/recommendation/restraunt</t>
-  </si>
-  <si>
     <t>/recommendation/music</t>
   </si>
   <si>
@@ -108,6 +105,15 @@
   </si>
   <si>
     <t>get a brightness</t>
+  </si>
+  <si>
+    <t>/recommendation/sports</t>
+  </si>
+  <si>
+    <t>get a recommendation of sports, return a list of sports (only 1 now)</t>
+  </si>
+  <si>
+    <t>/recommendation/restaurant</t>
   </si>
 </sst>
 </file>
@@ -427,9 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -440,18 +444,26 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -498,60 +510,60 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
         <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/rest API.xlsx
+++ b/rest API.xlsx
@@ -110,10 +110,10 @@
     <t>/recommendation/sports</t>
   </si>
   <si>
-    <t>get a recommendation of sports, return a list of sports (only 1 now)</t>
-  </si>
-  <si>
     <t>/recommendation/restaurant</t>
+  </si>
+  <si>
+    <t>get a recommendation of sports, return a list of sports (2 now)</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -444,7 +446,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -463,7 +465,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
